--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam2-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.59758166666667</v>
+        <v>52.08999</v>
       </c>
       <c r="H2">
-        <v>76.792745</v>
+        <v>156.26997</v>
       </c>
       <c r="I2">
-        <v>0.7690757955240869</v>
+        <v>0.9401105828221099</v>
       </c>
       <c r="J2">
-        <v>0.7690757955240868</v>
+        <v>0.9401105828221098</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>66.38494866666666</v>
+        <v>35.68243999999999</v>
       </c>
       <c r="N2">
-        <v>199.154846</v>
+        <v>107.04732</v>
       </c>
       <c r="O2">
-        <v>0.4171200956172241</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.4171200956172242</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1699.294144932474</v>
+        <v>1858.6979427756</v>
       </c>
       <c r="R2">
-        <v>15293.64730439227</v>
+        <v>16728.2814849804</v>
       </c>
       <c r="S2">
-        <v>0.3207969693658999</v>
+        <v>0.9401105828221099</v>
       </c>
       <c r="T2">
-        <v>0.3207969693658999</v>
+        <v>0.9401105828221098</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,22 +593,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>25.59758166666667</v>
+        <v>0.545858</v>
       </c>
       <c r="H3">
-        <v>76.792745</v>
+        <v>1.637574</v>
       </c>
       <c r="I3">
-        <v>0.7690757955240869</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="J3">
-        <v>0.7690757955240868</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>92.76573566666667</v>
+        <v>35.68243999999999</v>
       </c>
       <c r="N3">
-        <v>278.297207</v>
+        <v>107.04732</v>
       </c>
       <c r="O3">
-        <v>0.5828799043827758</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.5828799043827758</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>2374.578494595913</v>
+        <v>19.47754533351999</v>
       </c>
       <c r="R3">
-        <v>21371.20645136321</v>
+        <v>175.29790800168</v>
       </c>
       <c r="S3">
-        <v>0.448278826158187</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="T3">
-        <v>0.4482788261581869</v>
+        <v>0.009851545038079508</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,51 +661,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.545858</v>
+        <v>1.744358333333333</v>
       </c>
       <c r="H4">
-        <v>1.637574</v>
+        <v>5.233075</v>
       </c>
       <c r="I4">
-        <v>0.01640022800043886</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="J4">
-        <v>0.01640022800043885</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>66.38494866666666</v>
+        <v>35.68243999999999</v>
       </c>
       <c r="N4">
-        <v>199.154846</v>
+        <v>107.04732</v>
       </c>
       <c r="O4">
-        <v>0.4171200956172241</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.4171200956172242</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>36.23675530928933</v>
+        <v>62.24296156766666</v>
       </c>
       <c r="R4">
-        <v>326.130797783604</v>
+        <v>560.186654109</v>
       </c>
       <c r="S4">
-        <v>0.006840864671687332</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="T4">
-        <v>0.006840864671687332</v>
+        <v>0.03148185917103467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.545858</v>
+        <v>1.028158333333334</v>
       </c>
       <c r="H5">
-        <v>1.637574</v>
+        <v>3.084475</v>
       </c>
       <c r="I5">
-        <v>0.01640022800043886</v>
+        <v>0.01855601296877595</v>
       </c>
       <c r="J5">
-        <v>0.01640022800043885</v>
+        <v>0.01855601296877594</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.76573566666667</v>
+        <v>35.68243999999999</v>
       </c>
       <c r="N5">
-        <v>278.297207</v>
+        <v>107.04732</v>
       </c>
       <c r="O5">
-        <v>0.5828799043827758</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.5828799043827758</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>50.63691893953533</v>
+        <v>36.68719803966667</v>
       </c>
       <c r="R5">
-        <v>455.732270455818</v>
+        <v>330.184782357</v>
       </c>
       <c r="S5">
-        <v>0.009559363328751524</v>
+        <v>0.01855601296877595</v>
       </c>
       <c r="T5">
-        <v>0.009559363328751522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>1.262138666666667</v>
-      </c>
-      <c r="H6">
-        <v>3.786416</v>
-      </c>
-      <c r="I6">
-        <v>0.03792078141476946</v>
-      </c>
-      <c r="J6">
-        <v>0.03792078141476946</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>66.38494866666666</v>
-      </c>
-      <c r="N6">
-        <v>199.154846</v>
-      </c>
-      <c r="O6">
-        <v>0.4171200956172241</v>
-      </c>
-      <c r="P6">
-        <v>0.4171200956172242</v>
-      </c>
-      <c r="Q6">
-        <v>83.78701059688176</v>
-      </c>
-      <c r="R6">
-        <v>754.0830953719359</v>
-      </c>
-      <c r="S6">
-        <v>0.01581751996960849</v>
-      </c>
-      <c r="T6">
-        <v>0.0158175199696085</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>1.262138666666667</v>
-      </c>
-      <c r="H7">
-        <v>3.786416</v>
-      </c>
-      <c r="I7">
-        <v>0.03792078141476946</v>
-      </c>
-      <c r="J7">
-        <v>0.03792078141476946</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>92.76573566666667</v>
-      </c>
-      <c r="N7">
-        <v>278.297207</v>
-      </c>
-      <c r="O7">
-        <v>0.5828799043827758</v>
-      </c>
-      <c r="P7">
-        <v>0.5828799043827758</v>
-      </c>
-      <c r="Q7">
-        <v>117.0832219266791</v>
-      </c>
-      <c r="R7">
-        <v>1053.748997340112</v>
-      </c>
-      <c r="S7">
-        <v>0.02210326144516097</v>
-      </c>
-      <c r="T7">
-        <v>0.02210326144516097</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>5.877983333333333</v>
-      </c>
-      <c r="H8">
-        <v>17.63395</v>
-      </c>
-      <c r="I8">
-        <v>0.1766031950607049</v>
-      </c>
-      <c r="J8">
-        <v>0.1766031950607049</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>66.38494866666666</v>
-      </c>
-      <c r="N8">
-        <v>199.154846</v>
-      </c>
-      <c r="O8">
-        <v>0.4171200956172241</v>
-      </c>
-      <c r="P8">
-        <v>0.4171200956172242</v>
-      </c>
-      <c r="Q8">
-        <v>390.2096218468555</v>
-      </c>
-      <c r="R8">
-        <v>3511.886596621699</v>
-      </c>
-      <c r="S8">
-        <v>0.07366474161002852</v>
-      </c>
-      <c r="T8">
-        <v>0.07366474161002851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.877983333333333</v>
-      </c>
-      <c r="H9">
-        <v>17.63395</v>
-      </c>
-      <c r="I9">
-        <v>0.1766031950607049</v>
-      </c>
-      <c r="J9">
-        <v>0.1766031950607049</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>92.76573566666667</v>
-      </c>
-      <c r="N9">
-        <v>278.297207</v>
-      </c>
-      <c r="O9">
-        <v>0.5828799043827758</v>
-      </c>
-      <c r="P9">
-        <v>0.5828799043827758</v>
-      </c>
-      <c r="Q9">
-        <v>545.2754481530723</v>
-      </c>
-      <c r="R9">
-        <v>4907.47903337765</v>
-      </c>
-      <c r="S9">
-        <v>0.1029384534506764</v>
-      </c>
-      <c r="T9">
-        <v>0.1029384534506764</v>
+        <v>0.01855601296877594</v>
       </c>
     </row>
   </sheetData>
